--- a/data/pca/factorExposure/factorExposure_2009-01-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +714,42 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01632432342472911</v>
+        <v>-0.01521170582011823</v>
       </c>
       <c r="C2">
-        <v>-0.01017083496168792</v>
+        <v>0.01187695902072316</v>
       </c>
       <c r="D2">
-        <v>-0.01702906086004488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01510342431593068</v>
+      </c>
+      <c r="E2">
+        <v>-0.004365698313103314</v>
+      </c>
+      <c r="F2">
+        <v>0.01135078975350311</v>
+      </c>
+      <c r="G2">
+        <v>0.01509991547141244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +760,364 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08180480827024124</v>
+        <v>-0.08409462525695592</v>
       </c>
       <c r="C4">
-        <v>-0.08233856525621092</v>
+        <v>0.08851560739588525</v>
       </c>
       <c r="D4">
-        <v>0.0594437762628159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0582993101789054</v>
+      </c>
+      <c r="E4">
+        <v>0.03024518287848</v>
+      </c>
+      <c r="F4">
+        <v>0.03236507582701756</v>
+      </c>
+      <c r="G4">
+        <v>0.02869903635249076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.003171374473131824</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.002179983020933022</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.002593324031063736</v>
+      </c>
+      <c r="E5">
+        <v>-0.002128494515345851</v>
+      </c>
+      <c r="F5">
+        <v>-0.003190093706101271</v>
+      </c>
+      <c r="G5">
+        <v>-0.001830605925712191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1680112581493312</v>
+        <v>-0.1699701680104435</v>
       </c>
       <c r="C6">
-        <v>0.0212288254679125</v>
+        <v>-0.01166944120022023</v>
       </c>
       <c r="D6">
-        <v>0.04918498868379459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05083675515855361</v>
+      </c>
+      <c r="E6">
+        <v>0.03123434244298886</v>
+      </c>
+      <c r="F6">
+        <v>-0.06335244789918247</v>
+      </c>
+      <c r="G6">
+        <v>0.000113225198436053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05528842967233939</v>
+        <v>-0.05938829958110806</v>
       </c>
       <c r="C7">
-        <v>-0.05925702618963494</v>
+        <v>0.06424586850777095</v>
       </c>
       <c r="D7">
-        <v>0.03771851547963109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.0417128769875127</v>
+      </c>
+      <c r="E7">
+        <v>0.06444423591199279</v>
+      </c>
+      <c r="F7">
+        <v>0.06019147921692306</v>
+      </c>
+      <c r="G7">
+        <v>0.0412131844494129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05453234277418095</v>
+        <v>-0.05106094673782664</v>
       </c>
       <c r="C8">
-        <v>-0.05040456296073278</v>
+        <v>0.05076953192455932</v>
       </c>
       <c r="D8">
-        <v>-0.01159487826453512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.01426125287453899</v>
+      </c>
+      <c r="E8">
+        <v>-0.009596986264652912</v>
+      </c>
+      <c r="F8">
+        <v>0.04177947997092638</v>
+      </c>
+      <c r="G8">
+        <v>-0.002579466718873995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06095568604122416</v>
+        <v>-0.06438924782456723</v>
       </c>
       <c r="C9">
-        <v>-0.08618667395448415</v>
+        <v>0.09077029109304012</v>
       </c>
       <c r="D9">
-        <v>0.0884041812241166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08347190558101977</v>
+      </c>
+      <c r="E9">
+        <v>0.04315655251030326</v>
+      </c>
+      <c r="F9">
+        <v>0.05727473746760036</v>
+      </c>
+      <c r="G9">
+        <v>0.003069714634136869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1098388278316711</v>
+        <v>-0.1019358989351145</v>
       </c>
       <c r="C10">
-        <v>0.1418958449025447</v>
+        <v>-0.1344971055804356</v>
       </c>
       <c r="D10">
-        <v>-0.1078305348573234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.09540168961169304</v>
+      </c>
+      <c r="E10">
+        <v>-0.03360033087746122</v>
+      </c>
+      <c r="F10">
+        <v>0.04764567934598196</v>
+      </c>
+      <c r="G10">
+        <v>-0.02165976758708599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07880422151443262</v>
+        <v>-0.07674277828630881</v>
       </c>
       <c r="C11">
-        <v>-0.1284003406128793</v>
+        <v>0.1290571507241331</v>
       </c>
       <c r="D11">
-        <v>0.06422048127013769</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05425917767489176</v>
+      </c>
+      <c r="E11">
+        <v>0.00349867174799624</v>
+      </c>
+      <c r="F11">
+        <v>0.07730965871784722</v>
+      </c>
+      <c r="G11">
+        <v>-0.0004624715642004559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08234664761726157</v>
+        <v>-0.07839089443037227</v>
       </c>
       <c r="C12">
-        <v>-0.1463647548680461</v>
+        <v>0.1490587913918888</v>
       </c>
       <c r="D12">
-        <v>0.06690534336254882</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.06123816870815262</v>
+      </c>
+      <c r="E12">
+        <v>0.01155896353845175</v>
+      </c>
+      <c r="F12">
+        <v>0.08363944438974451</v>
+      </c>
+      <c r="G12">
+        <v>0.002814741477372216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04277267996724771</v>
+        <v>-0.04284234678969826</v>
       </c>
       <c r="C13">
-        <v>-0.07015480488161017</v>
+        <v>0.0759137802329969</v>
       </c>
       <c r="D13">
-        <v>0.0287286125949047</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.02738812332963176</v>
+      </c>
+      <c r="E13">
+        <v>0.02418870380908938</v>
+      </c>
+      <c r="F13">
+        <v>0.07212439639123278</v>
+      </c>
+      <c r="G13">
+        <v>0.006513411177630357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02029798587893673</v>
+        <v>-0.0232331299816377</v>
       </c>
       <c r="C14">
-        <v>-0.04403383315328243</v>
+        <v>0.04463512140421334</v>
       </c>
       <c r="D14">
-        <v>0.05261785680584173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.04945581607133046</v>
+      </c>
+      <c r="E14">
+        <v>0.00576150477331629</v>
+      </c>
+      <c r="F14">
+        <v>0.08033636888526602</v>
+      </c>
+      <c r="G14">
+        <v>-0.01118345891320655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03139296106187998</v>
+        <v>-0.03360026016302609</v>
       </c>
       <c r="C15">
-        <v>-0.05620513373265952</v>
+        <v>0.0558262951341958</v>
       </c>
       <c r="D15">
-        <v>0.04532367926785755</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03874806680868539</v>
+      </c>
+      <c r="E15">
+        <v>0.02804493877303852</v>
+      </c>
+      <c r="F15">
+        <v>0.02714168538513938</v>
+      </c>
+      <c r="G15">
+        <v>-0.01135575483048606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05763125710248749</v>
+        <v>-0.05761797266924506</v>
       </c>
       <c r="C16">
-        <v>-0.1443438439856499</v>
+        <v>0.1446940546418549</v>
       </c>
       <c r="D16">
-        <v>0.07950901293134743</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.07001870983267434</v>
+      </c>
+      <c r="E16">
+        <v>-0.0112004791774923</v>
+      </c>
+      <c r="F16">
+        <v>0.07882433019586206</v>
+      </c>
+      <c r="G16">
+        <v>0.002221043457811197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.005456206359455471</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.004465659660134964</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002687325152287336</v>
+      </c>
+      <c r="E17">
+        <v>-0.008608610076685928</v>
+      </c>
+      <c r="F17">
+        <v>-0.006609926340643598</v>
+      </c>
+      <c r="G17">
+        <v>-0.01468773501227354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.03636862203285876</v>
+        <v>-0.05168257156552455</v>
       </c>
       <c r="C18">
-        <v>-0.04820251013182702</v>
+        <v>0.04267983756436283</v>
       </c>
       <c r="D18">
-        <v>-0.0006582929958707225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.006584761301725365</v>
+      </c>
+      <c r="E18">
+        <v>-0.005625844877206566</v>
+      </c>
+      <c r="F18">
+        <v>-0.05712479307667737</v>
+      </c>
+      <c r="G18">
+        <v>-0.005096516640883989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1128,180 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05634258347770236</v>
+        <v>-0.05638561369678295</v>
       </c>
       <c r="C20">
-        <v>-0.09415095704561799</v>
+        <v>0.09345409075339602</v>
       </c>
       <c r="D20">
-        <v>0.08744660439191318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08050057645880553</v>
+      </c>
+      <c r="E20">
+        <v>0.01251288055285855</v>
+      </c>
+      <c r="F20">
+        <v>0.07194642257832866</v>
+      </c>
+      <c r="G20">
+        <v>-0.008296502068842047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04377490369324276</v>
+        <v>-0.04528284872813248</v>
       </c>
       <c r="C21">
-        <v>-0.06153463043109469</v>
+        <v>0.0592986678243435</v>
       </c>
       <c r="D21">
-        <v>0.01013358056709187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.007485221424382892</v>
+      </c>
+      <c r="E21">
+        <v>0.0174747439099357</v>
+      </c>
+      <c r="F21">
+        <v>0.06948820037986485</v>
+      </c>
+      <c r="G21">
+        <v>0.01850505657564659</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04543843079571141</v>
+        <v>-0.04459073135178256</v>
       </c>
       <c r="C22">
-        <v>-0.02548783707443176</v>
+        <v>0.02948818001991819</v>
       </c>
       <c r="D22">
-        <v>0.00293029798079003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.003061244805247504</v>
+      </c>
+      <c r="E22">
+        <v>-0.1521616522988229</v>
+      </c>
+      <c r="F22">
+        <v>-0.01477682996226783</v>
+      </c>
+      <c r="G22">
+        <v>-0.002936825829026841</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04544786440996815</v>
+        <v>-0.0445987730855441</v>
       </c>
       <c r="C23">
-        <v>-0.02548072717954921</v>
+        <v>0.02948200713857058</v>
       </c>
       <c r="D23">
-        <v>0.002913564122888697</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.003044303086729369</v>
+      </c>
+      <c r="E23">
+        <v>-0.1522035746159172</v>
+      </c>
+      <c r="F23">
+        <v>-0.01476622846205315</v>
+      </c>
+      <c r="G23">
+        <v>-0.002977180212892912</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06650675041180366</v>
+        <v>-0.06586702420507161</v>
       </c>
       <c r="C24">
-        <v>-0.1349079069275083</v>
+        <v>0.134178614439503</v>
       </c>
       <c r="D24">
-        <v>0.07073618022388879</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06240569898838855</v>
+      </c>
+      <c r="E24">
+        <v>0.01028413601064016</v>
+      </c>
+      <c r="F24">
+        <v>0.0741539227985378</v>
+      </c>
+      <c r="G24">
+        <v>0.005322533150367539</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07211317580487774</v>
+        <v>-0.07061236777361125</v>
       </c>
       <c r="C25">
-        <v>-0.1181093295450152</v>
+        <v>0.1177610770690218</v>
       </c>
       <c r="D25">
-        <v>0.04300490477255762</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.03278304658459674</v>
+      </c>
+      <c r="E25">
+        <v>0.02949493540209626</v>
+      </c>
+      <c r="F25">
+        <v>0.09161189271440245</v>
+      </c>
+      <c r="G25">
+        <v>0.006798491749838625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05646039185898257</v>
+        <v>-0.06059367589507921</v>
       </c>
       <c r="C26">
-        <v>-0.06849511589840344</v>
+        <v>0.06924440589622034</v>
       </c>
       <c r="D26">
-        <v>0.03591684168644209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02847384384817958</v>
+      </c>
+      <c r="E26">
+        <v>0.001468275149865343</v>
+      </c>
+      <c r="F26">
+        <v>0.08127488547075551</v>
+      </c>
+      <c r="G26">
+        <v>-0.01010413059964185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1312,249 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1708159973261758</v>
+        <v>-0.1735551928450828</v>
       </c>
       <c r="C28">
-        <v>0.2294138891386708</v>
+        <v>-0.2290217220734211</v>
       </c>
       <c r="D28">
-        <v>-0.03392437956980759</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.04263957263025592</v>
+      </c>
+      <c r="E28">
+        <v>0.05827310657562886</v>
+      </c>
+      <c r="F28">
+        <v>0.138310220068319</v>
+      </c>
+      <c r="G28">
+        <v>-0.01645250425381399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02408345642874353</v>
+        <v>-0.02675865218717541</v>
       </c>
       <c r="C29">
-        <v>-0.04833680964529978</v>
+        <v>0.0462995372139228</v>
       </c>
       <c r="D29">
-        <v>0.02114684606086144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01975451305227673</v>
+      </c>
+      <c r="E29">
+        <v>-0.01351727847977546</v>
+      </c>
+      <c r="F29">
+        <v>0.07640706369434172</v>
+      </c>
+      <c r="G29">
+        <v>-0.006157213237340521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03975146543711006</v>
+        <v>-0.04161608025859653</v>
       </c>
       <c r="C30">
-        <v>-0.0683128529371322</v>
+        <v>0.0757673204078028</v>
       </c>
       <c r="D30">
-        <v>0.1119860684348482</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09039332945427898</v>
+      </c>
+      <c r="E30">
+        <v>0.1099024003185802</v>
+      </c>
+      <c r="F30">
+        <v>0.06357477891068639</v>
+      </c>
+      <c r="G30">
+        <v>-0.01932930906953582</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05205529584268693</v>
+        <v>-0.05156887560007416</v>
       </c>
       <c r="C31">
-        <v>-0.03278161157062714</v>
+        <v>0.03617376370001695</v>
       </c>
       <c r="D31">
-        <v>0.02003931187124345</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02511624583428752</v>
+      </c>
+      <c r="E31">
+        <v>-0.02965634088364149</v>
+      </c>
+      <c r="F31">
+        <v>0.02061029469633983</v>
+      </c>
+      <c r="G31">
+        <v>0.02191539885345205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0434566387627476</v>
+        <v>-0.04789967921005883</v>
       </c>
       <c r="C32">
-        <v>-0.0506711602668145</v>
+        <v>0.04768312871146707</v>
       </c>
       <c r="D32">
-        <v>0.02646474249928516</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0280559847534808</v>
+      </c>
+      <c r="E32">
+        <v>-0.0171010921289304</v>
+      </c>
+      <c r="F32">
+        <v>0.005681638771584948</v>
+      </c>
+      <c r="G32">
+        <v>-0.008792057987364887</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07859373363397312</v>
+        <v>-0.08204504709363852</v>
       </c>
       <c r="C33">
-        <v>-0.107117917295012</v>
+        <v>0.1173351634316274</v>
       </c>
       <c r="D33">
-        <v>0.07252965694637656</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.072602280512696</v>
+      </c>
+      <c r="E33">
+        <v>0.01151489714987198</v>
+      </c>
+      <c r="F33">
+        <v>0.07413325175659349</v>
+      </c>
+      <c r="G33">
+        <v>-0.001203517015244848</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05452244141167529</v>
+        <v>-0.05448952807919131</v>
       </c>
       <c r="C34">
-        <v>-0.1185607773870437</v>
+        <v>0.1209384419103757</v>
       </c>
       <c r="D34">
-        <v>0.08007599057482573</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.06279631716146611</v>
+      </c>
+      <c r="E34">
+        <v>0.04387809433326764</v>
+      </c>
+      <c r="F34">
+        <v>0.08482065652943067</v>
+      </c>
+      <c r="G34">
+        <v>-0.02487807933462484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02696175440397741</v>
+        <v>-0.02962577739779433</v>
       </c>
       <c r="C35">
-        <v>-0.01670108429781366</v>
+        <v>0.01932412407309495</v>
       </c>
       <c r="D35">
-        <v>0.02988123549241896</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02740019679373408</v>
+      </c>
+      <c r="E35">
+        <v>-0.01034319435533603</v>
+      </c>
+      <c r="F35">
+        <v>0.03304377788917354</v>
+      </c>
+      <c r="G35">
+        <v>-0.03110306801388005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02309237219585277</v>
+        <v>-0.02730657151970586</v>
       </c>
       <c r="C36">
-        <v>-0.04852278523718768</v>
+        <v>0.04831995787873609</v>
       </c>
       <c r="D36">
-        <v>0.07069231460739592</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.06203314752432972</v>
+      </c>
+      <c r="E36">
+        <v>0.007179385318350362</v>
+      </c>
+      <c r="F36">
+        <v>0.02706713147441414</v>
+      </c>
+      <c r="G36">
+        <v>-0.08190378063801886</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-0.0001091643210008063</v>
+        <v>-0.003491395000126964</v>
       </c>
       <c r="C37">
-        <v>0.000570972999194419</v>
+        <v>0.00670625481035586</v>
       </c>
       <c r="D37">
-        <v>-0.0002289972710703896</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.001490689414491919</v>
+      </c>
+      <c r="E37">
+        <v>0.0002146209514121583</v>
+      </c>
+      <c r="F37">
+        <v>0.01052536484706947</v>
+      </c>
+      <c r="G37">
+        <v>0.005796961158531219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1565,88 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08430009030184824</v>
+        <v>-0.07849720671909774</v>
       </c>
       <c r="C39">
-        <v>-0.150327612085417</v>
+        <v>0.1459820208304142</v>
       </c>
       <c r="D39">
-        <v>0.04781775368651616</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.03955932955351658</v>
+      </c>
+      <c r="E39">
+        <v>-0.002616547804853289</v>
+      </c>
+      <c r="F39">
+        <v>0.1334198877906388</v>
+      </c>
+      <c r="G39">
+        <v>0.03429355747029286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04637115451714162</v>
+        <v>-0.05084560371638039</v>
       </c>
       <c r="C40">
-        <v>-0.06846862186909197</v>
+        <v>0.07328041108256445</v>
       </c>
       <c r="D40">
-        <v>0.02496941619882791</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01556859957978126</v>
+      </c>
+      <c r="E40">
+        <v>0.003382234812849051</v>
+      </c>
+      <c r="F40">
+        <v>0.04921910805374298</v>
+      </c>
+      <c r="G40">
+        <v>-0.04458016394371916</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02650857722142193</v>
+        <v>-0.02828629861518079</v>
       </c>
       <c r="C41">
-        <v>-0.0207804208293971</v>
+        <v>0.02167007586223487</v>
       </c>
       <c r="D41">
-        <v>-0.00558092831184319</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.005098517142966906</v>
+      </c>
+      <c r="E41">
+        <v>-0.01094755335162186</v>
+      </c>
+      <c r="F41">
+        <v>-0.01096065574237805</v>
+      </c>
+      <c r="G41">
+        <v>-0.01271711686878463</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1657,203 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04264991087376899</v>
+        <v>-0.04201198538053586</v>
       </c>
       <c r="C43">
-        <v>-0.04109246102972813</v>
+        <v>0.03774444219767907</v>
       </c>
       <c r="D43">
-        <v>0.009615631996975555</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.008596566976993647</v>
+      </c>
+      <c r="E43">
+        <v>-0.03121820705453417</v>
+      </c>
+      <c r="F43">
+        <v>0.02677235633555174</v>
+      </c>
+      <c r="G43">
+        <v>-0.002145253804344308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05641157303656735</v>
+        <v>-0.06402453070077296</v>
       </c>
       <c r="C44">
-        <v>-0.07856812049849292</v>
+        <v>0.08502094998034129</v>
       </c>
       <c r="D44">
-        <v>0.278177572107544</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.2469257238039176</v>
+      </c>
+      <c r="E44">
+        <v>0.1463049122623143</v>
+      </c>
+      <c r="F44">
+        <v>0.1271179595012367</v>
+      </c>
+      <c r="G44">
+        <v>-0.1665300039371507</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001633994843608456</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.000319758684286394</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>0.001369351820816902</v>
+      </c>
+      <c r="E45">
+        <v>0.001723438464820525</v>
+      </c>
+      <c r="F45">
+        <v>0.0006912534342979555</v>
+      </c>
+      <c r="G45">
+        <v>0.005225976726415067</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02822288616750499</v>
+        <v>-0.02772731700302886</v>
       </c>
       <c r="C46">
-        <v>-0.03496718347447222</v>
+        <v>0.03347436304418073</v>
       </c>
       <c r="D46">
-        <v>0.02304706850675971</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.02449781837414472</v>
+      </c>
+      <c r="E46">
+        <v>-0.03514822538804592</v>
+      </c>
+      <c r="F46">
+        <v>0.07357254613171313</v>
+      </c>
+      <c r="G46">
+        <v>0.02234479574997994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05145318734419151</v>
+        <v>-0.05089258627762776</v>
       </c>
       <c r="C47">
-        <v>-0.02280827226506507</v>
+        <v>0.02630842502879019</v>
       </c>
       <c r="D47">
-        <v>-0.009379216479806293</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.002557343982103415</v>
+      </c>
+      <c r="E47">
+        <v>-0.06310816484529494</v>
+      </c>
+      <c r="F47">
+        <v>-0.002917270577816612</v>
+      </c>
+      <c r="G47">
+        <v>0.02907906437101196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04681160736364785</v>
+        <v>-0.05006244726074293</v>
       </c>
       <c r="C48">
-        <v>-0.06923351793803678</v>
+        <v>0.06874602760415364</v>
       </c>
       <c r="D48">
-        <v>0.02388984333887155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01935063608147783</v>
+      </c>
+      <c r="E48">
+        <v>0.02929904137889658</v>
+      </c>
+      <c r="F48">
+        <v>0.05282435923301127</v>
+      </c>
+      <c r="G48">
+        <v>0.02127706946422071</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1941515574141481</v>
+        <v>-0.1977102414475536</v>
       </c>
       <c r="C49">
-        <v>0.01337886781203501</v>
+        <v>-0.006511750785267</v>
       </c>
       <c r="D49">
-        <v>0.02035143552072725</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.02758613665440082</v>
+      </c>
+      <c r="E49">
+        <v>0.03753519476972942</v>
+      </c>
+      <c r="F49">
+        <v>-0.06292901384377995</v>
+      </c>
+      <c r="G49">
+        <v>0.006613023885252495</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05035351512648549</v>
+        <v>-0.052016514431025</v>
       </c>
       <c r="C50">
-        <v>-0.03061398770824607</v>
+        <v>0.03365750481213974</v>
       </c>
       <c r="D50">
-        <v>0.0269205076734287</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03207329695576505</v>
+      </c>
+      <c r="E50">
+        <v>-0.01622665613736099</v>
+      </c>
+      <c r="F50">
+        <v>0.009982721977121257</v>
+      </c>
+      <c r="G50">
+        <v>0.02343047868447359</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1864,134 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1442664876109025</v>
+        <v>-0.1376069475826857</v>
       </c>
       <c r="C52">
-        <v>-0.03383485925299735</v>
+        <v>0.03412372610748966</v>
       </c>
       <c r="D52">
-        <v>0.05941762622099568</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.06090201730883574</v>
+      </c>
+      <c r="E52">
+        <v>-0.01384272632817743</v>
+      </c>
+      <c r="F52">
+        <v>-0.07151107179804737</v>
+      </c>
+      <c r="G52">
+        <v>0.04069018531249694</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1743121949476042</v>
+        <v>-0.1654898124370881</v>
       </c>
       <c r="C53">
-        <v>0.002772644664743468</v>
+        <v>0.00125766852028919</v>
       </c>
       <c r="D53">
-        <v>0.09667434153482528</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.1050937670939171</v>
+      </c>
+      <c r="E53">
+        <v>0.002397992932967091</v>
+      </c>
+      <c r="F53">
+        <v>-0.1171765716684322</v>
+      </c>
+      <c r="G53">
+        <v>0.07937467356310503</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01079924322545289</v>
+        <v>-0.01429842682421288</v>
       </c>
       <c r="C54">
-        <v>-0.03299552357291305</v>
+        <v>0.0337796227002115</v>
       </c>
       <c r="D54">
-        <v>0.01952809854793366</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02062339981680609</v>
+      </c>
+      <c r="E54">
+        <v>-0.01041393795791471</v>
+      </c>
+      <c r="F54">
+        <v>0.04771256426675529</v>
+      </c>
+      <c r="G54">
+        <v>-0.001523143523123179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1210394777230267</v>
+        <v>-0.1175580411065092</v>
       </c>
       <c r="C55">
-        <v>-0.006503710772113658</v>
+        <v>0.01222610259156284</v>
       </c>
       <c r="D55">
-        <v>0.07359624849981262</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.08051402772689048</v>
+      </c>
+      <c r="E55">
+        <v>-0.03105261213725547</v>
+      </c>
+      <c r="F55">
+        <v>-0.03592597799656192</v>
+      </c>
+      <c r="G55">
+        <v>0.07429938540088706</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.18099169250584</v>
+        <v>-0.1732538978976941</v>
       </c>
       <c r="C56">
-        <v>0.009062565839798278</v>
+        <v>-0.007569326480605508</v>
       </c>
       <c r="D56">
-        <v>0.04838571337451978</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.06299330904283044</v>
+      </c>
+      <c r="E56">
+        <v>-0.03904145146589282</v>
+      </c>
+      <c r="F56">
+        <v>-0.1473326675074716</v>
+      </c>
+      <c r="G56">
+        <v>0.08320057529160713</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +2002,433 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04378109351730729</v>
+        <v>-0.04456716119503434</v>
       </c>
       <c r="C58">
-        <v>-0.09743771904844628</v>
+        <v>0.1063998178162607</v>
       </c>
       <c r="D58">
-        <v>0.008063962299814764</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0169556793792145</v>
+      </c>
+      <c r="E58">
+        <v>-0.03228969078133531</v>
+      </c>
+      <c r="F58">
+        <v>0.04626998783129174</v>
+      </c>
+      <c r="G58">
+        <v>0.01931575122699651</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1877321130037641</v>
+        <v>-0.190744077902866</v>
       </c>
       <c r="C59">
-        <v>0.1764798701208881</v>
+        <v>-0.1802172070919923</v>
       </c>
       <c r="D59">
-        <v>-0.07557836471894495</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.07595933215329034</v>
+      </c>
+      <c r="E59">
+        <v>-0.03558862573248682</v>
+      </c>
+      <c r="F59">
+        <v>0.07086697688026777</v>
+      </c>
+      <c r="G59">
+        <v>0.0267848866021782</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2143250471315021</v>
+        <v>-0.2090404800230418</v>
       </c>
       <c r="C60">
-        <v>-0.004419052945924107</v>
+        <v>0.009552950905400965</v>
       </c>
       <c r="D60">
-        <v>-0.06849407708297961</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04665846907385817</v>
+      </c>
+      <c r="E60">
+        <v>-0.04873847978880361</v>
+      </c>
+      <c r="F60">
+        <v>-0.1903758120278436</v>
+      </c>
+      <c r="G60">
+        <v>0.09904626233267982</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06481442523557514</v>
+        <v>-0.06197285093144159</v>
       </c>
       <c r="C61">
-        <v>-0.1233368188354962</v>
+        <v>0.12113434350231</v>
       </c>
       <c r="D61">
-        <v>0.04603712723343906</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03955295413221713</v>
+      </c>
+      <c r="E61">
+        <v>-0.01398407791655202</v>
+      </c>
+      <c r="F61">
+        <v>0.08696372613680206</v>
+      </c>
+      <c r="G61">
+        <v>0.01465100346329043</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1686561051772816</v>
+        <v>-0.1649588991336273</v>
       </c>
       <c r="C62">
-        <v>0.01013978289046154</v>
+        <v>-0.007129621742236843</v>
       </c>
       <c r="D62">
-        <v>0.04059593084052301</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.05714434054722921</v>
+      </c>
+      <c r="E62">
+        <v>-0.03495860470086975</v>
+      </c>
+      <c r="F62">
+        <v>-0.1195465124102164</v>
+      </c>
+      <c r="G62">
+        <v>0.07532163125574412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.03832058803438478</v>
+        <v>-0.04305914299108528</v>
       </c>
       <c r="C63">
-        <v>-0.07247606321054123</v>
+        <v>0.07469982674832902</v>
       </c>
       <c r="D63">
-        <v>0.03768501021945633</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.03311068317565485</v>
+      </c>
+      <c r="E63">
+        <v>-0.01425413291684039</v>
+      </c>
+      <c r="F63">
+        <v>0.0495408055534433</v>
+      </c>
+      <c r="G63">
+        <v>-0.02969861010549706</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1116423116471256</v>
+        <v>-0.1095889624119666</v>
       </c>
       <c r="C64">
-        <v>-0.04733416183498914</v>
+        <v>0.05125324195896493</v>
       </c>
       <c r="D64">
-        <v>0.03480180404360603</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03695950880941824</v>
+      </c>
+      <c r="E64">
+        <v>-0.01280489354677243</v>
+      </c>
+      <c r="F64">
+        <v>-0.0356509846770001</v>
+      </c>
+      <c r="G64">
+        <v>0.002093085782020142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1560562484179239</v>
+        <v>-0.1599500595254507</v>
       </c>
       <c r="C65">
-        <v>0.06163497886432495</v>
+        <v>-0.05063247277487725</v>
       </c>
       <c r="D65">
-        <v>0.04214407212611477</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.05034469313537275</v>
+      </c>
+      <c r="E65">
+        <v>0.02363856694876105</v>
+      </c>
+      <c r="F65">
+        <v>-0.01780726307349768</v>
+      </c>
+      <c r="G65">
+        <v>0.02542627086905128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1019659407925711</v>
+        <v>-0.09535399778473526</v>
       </c>
       <c r="C66">
-        <v>-0.1286034799211136</v>
+        <v>0.1295402966331129</v>
       </c>
       <c r="D66">
-        <v>0.05002436930451478</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.03798323176836076</v>
+      </c>
+      <c r="E66">
+        <v>0.007134915449836046</v>
+      </c>
+      <c r="F66">
+        <v>0.1056798544667873</v>
+      </c>
+      <c r="G66">
+        <v>-0.008827669918519857</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05825368137208135</v>
+        <v>-0.04910221438105598</v>
       </c>
       <c r="C67">
-        <v>-0.08466715375227814</v>
+        <v>0.07844049287957999</v>
       </c>
       <c r="D67">
-        <v>-0.02744100640374251</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02490182252691626</v>
+      </c>
+      <c r="E67">
+        <v>-0.09403311301959626</v>
+      </c>
+      <c r="F67">
+        <v>-0.03149100725654683</v>
+      </c>
+      <c r="G67">
+        <v>-0.001002597377136419</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1395565620083937</v>
+        <v>-0.1425253941537088</v>
       </c>
       <c r="C68">
-        <v>0.2470754430674361</v>
+        <v>-0.2490647204040843</v>
       </c>
       <c r="D68">
-        <v>-0.06716164611137891</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.07336336865272995</v>
+      </c>
+      <c r="E68">
+        <v>0.09291070973620939</v>
+      </c>
+      <c r="F68">
+        <v>0.1220548613666872</v>
+      </c>
+      <c r="G68">
+        <v>0.0169628405426339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03894648861656543</v>
+        <v>-0.03826148133748115</v>
       </c>
       <c r="C69">
-        <v>-0.01324144371191506</v>
+        <v>0.01521435397638532</v>
       </c>
       <c r="D69">
-        <v>0.01966090767071453</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02524307592199091</v>
+      </c>
+      <c r="E69">
+        <v>-0.06033937130710782</v>
+      </c>
+      <c r="F69">
+        <v>-0.04029491352859122</v>
+      </c>
+      <c r="G69">
+        <v>-0.0219777739889573</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.070400175661556</v>
+        <v>-0.07156766779395955</v>
       </c>
       <c r="C70">
-        <v>-0.08498476007520032</v>
+        <v>0.0809794911480948</v>
       </c>
       <c r="D70">
-        <v>-0.4905763906671884</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.3683479732184858</v>
+      </c>
+      <c r="E70">
+        <v>-0.3925806691749039</v>
+      </c>
+      <c r="F70">
+        <v>-0.2711542389293043</v>
+      </c>
+      <c r="G70">
+        <v>0.4157456241433293</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1626840637165705</v>
+        <v>-0.1667472742478156</v>
       </c>
       <c r="C71">
-        <v>0.2537707790228794</v>
+        <v>-0.2530749501011542</v>
       </c>
       <c r="D71">
-        <v>-0.0714249158984544</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.08048293375165792</v>
+      </c>
+      <c r="E71">
+        <v>0.1000575480989748</v>
+      </c>
+      <c r="F71">
+        <v>0.1214496711868897</v>
+      </c>
+      <c r="G71">
+        <v>0.01653630779185691</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1434914318329095</v>
+        <v>-0.1489791621826368</v>
       </c>
       <c r="C72">
-        <v>-0.007774977956521667</v>
+        <v>0.006574453544394258</v>
       </c>
       <c r="D72">
-        <v>0.07788554676092087</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.07429104761541336</v>
+      </c>
+      <c r="E72">
+        <v>-0.02968031592319489</v>
+      </c>
+      <c r="F72">
+        <v>-0.02451324798312782</v>
+      </c>
+      <c r="G72">
+        <v>-0.008779846642242262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1913372647199273</v>
+        <v>-0.1992233353422116</v>
       </c>
       <c r="C73">
-        <v>-0.0209428877561517</v>
+        <v>0.03011828532975613</v>
       </c>
       <c r="D73">
-        <v>0.07201115709670614</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.08223779686887168</v>
+      </c>
+      <c r="E73">
+        <v>-0.04452962771954126</v>
+      </c>
+      <c r="F73">
+        <v>-0.110128755662575</v>
+      </c>
+      <c r="G73">
+        <v>-0.005486029680385349</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08667201175638441</v>
+        <v>-0.08589659303612382</v>
       </c>
       <c r="C74">
-        <v>-0.003455975366056406</v>
+        <v>0.01044305064902851</v>
       </c>
       <c r="D74">
-        <v>0.07516809064505156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.08316226306187535</v>
+      </c>
+      <c r="E74">
+        <v>-0.004059658517223597</v>
+      </c>
+      <c r="F74">
+        <v>-0.07316060518470495</v>
+      </c>
+      <c r="G74">
+        <v>0.005410895579460593</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1241013140790557</v>
+        <v>-0.1162494197094003</v>
       </c>
       <c r="C75">
-        <v>-0.01879367243424755</v>
+        <v>0.02189818269950451</v>
       </c>
       <c r="D75">
-        <v>0.0657981272021398</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.07055515198044193</v>
+      </c>
+      <c r="E75">
+        <v>-0.04678357553260692</v>
+      </c>
+      <c r="F75">
+        <v>-0.05807787416895829</v>
+      </c>
+      <c r="G75">
+        <v>0.04977879006942217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2439,594 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07299934752283523</v>
+        <v>-0.08674845667354932</v>
       </c>
       <c r="C77">
-        <v>-0.1124369491600138</v>
+        <v>0.1132064841767681</v>
       </c>
       <c r="D77">
-        <v>0.06382715163000614</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06880088434765548</v>
+      </c>
+      <c r="E77">
+        <v>0.03426188161559919</v>
+      </c>
+      <c r="F77">
+        <v>0.09203435841814182</v>
+      </c>
+      <c r="G77">
+        <v>0.1011884476918462</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08874395866106365</v>
+        <v>-0.09259653512003754</v>
       </c>
       <c r="C78">
-        <v>-0.1257936662130728</v>
+        <v>0.1258752514181956</v>
       </c>
       <c r="D78">
-        <v>0.07885875171198314</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06161384542246896</v>
+      </c>
+      <c r="E78">
+        <v>0.04117681049124967</v>
+      </c>
+      <c r="F78">
+        <v>0.1156797211476328</v>
+      </c>
+      <c r="G78">
+        <v>0.08319112990684939</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1676824985087919</v>
+        <v>-0.1626581266709406</v>
       </c>
       <c r="C79">
-        <v>-0.01784054418990986</v>
+        <v>0.01881539763590823</v>
       </c>
       <c r="D79">
-        <v>0.03664178790114815</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.0435210651720335</v>
+      </c>
+      <c r="E79">
+        <v>-0.0324553518604458</v>
+      </c>
+      <c r="F79">
+        <v>-0.05250776143870064</v>
+      </c>
+      <c r="G79">
+        <v>0.05044393062169428</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07544015609326077</v>
+        <v>-0.07333378052567158</v>
       </c>
       <c r="C80">
-        <v>-0.06899383457797036</v>
+        <v>0.06519323260408687</v>
       </c>
       <c r="D80">
-        <v>0.03520221654734118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01810400568441881</v>
+      </c>
+      <c r="E80">
+        <v>-0.0295758829912545</v>
+      </c>
+      <c r="F80">
+        <v>0.09697688858350378</v>
+      </c>
+      <c r="G80">
+        <v>-0.1054538395622402</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1124552877869447</v>
+        <v>-0.1055483223889851</v>
       </c>
       <c r="C81">
-        <v>0.01409009087626725</v>
+        <v>-0.01087092800855838</v>
       </c>
       <c r="D81">
-        <v>0.03484894878728774</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.04278041042351834</v>
+      </c>
+      <c r="E81">
+        <v>-0.05884842650798616</v>
+      </c>
+      <c r="F81">
+        <v>-0.06673142154669116</v>
+      </c>
+      <c r="G81">
+        <v>0.01122265854647231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1624279667438845</v>
+        <v>-0.1583291445463859</v>
       </c>
       <c r="C82">
-        <v>0.01824942408612907</v>
+        <v>-0.01272270702982108</v>
       </c>
       <c r="D82">
-        <v>0.08327803461421088</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.09081840271074058</v>
+      </c>
+      <c r="E82">
+        <v>0.01596704251374579</v>
+      </c>
+      <c r="F82">
+        <v>-0.1252906638896611</v>
+      </c>
+      <c r="G82">
+        <v>0.01270253043997844</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05391491567570746</v>
+        <v>-0.04988352163223413</v>
       </c>
       <c r="C83">
-        <v>-0.06462457891661567</v>
+        <v>0.05988971999870731</v>
       </c>
       <c r="D83">
-        <v>-0.006462630937716202</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.009196901847108335</v>
+      </c>
+      <c r="E83">
+        <v>-0.00985933258291386</v>
+      </c>
+      <c r="F83">
+        <v>0.001752823848694501</v>
+      </c>
+      <c r="G83">
+        <v>0.0143886471782087</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.05108993198267271</v>
+        <v>-0.04855530325576652</v>
       </c>
       <c r="C84">
-        <v>-0.06850868546402815</v>
+        <v>0.06783256894715413</v>
       </c>
       <c r="D84">
-        <v>-0.0005489563213938868</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.002726825930190118</v>
+      </c>
+      <c r="E84">
+        <v>-0.03315044900531666</v>
+      </c>
+      <c r="F84">
+        <v>-0.005615941010323682</v>
+      </c>
+      <c r="G84">
+        <v>0.02553200897866722</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1403248178764391</v>
+        <v>-0.1343883264242325</v>
       </c>
       <c r="C85">
-        <v>-0.004079410120110535</v>
+        <v>0.007462552415236629</v>
       </c>
       <c r="D85">
-        <v>0.09395148404292265</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09461019397564205</v>
+      </c>
+      <c r="E85">
+        <v>-0.0004580383363280515</v>
+      </c>
+      <c r="F85">
+        <v>-0.04899769732863176</v>
+      </c>
+      <c r="G85">
+        <v>0.03727662594308732</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08323361139251903</v>
+        <v>-0.08065467947390556</v>
       </c>
       <c r="C86">
-        <v>-0.1384628285784497</v>
+        <v>0.1358879425118069</v>
       </c>
       <c r="D86">
-        <v>-0.3514118547320278</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.3790419617048809</v>
+      </c>
+      <c r="E86">
+        <v>-0.5153239594753569</v>
+      </c>
+      <c r="F86">
+        <v>0.5297660923530358</v>
+      </c>
+      <c r="G86">
+        <v>-0.1494592835480799</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08965812054392143</v>
+        <v>-0.0873769965117428</v>
       </c>
       <c r="C87">
-        <v>-0.09530547969077308</v>
+        <v>0.09253817069840856</v>
       </c>
       <c r="D87">
-        <v>0.04412910676119748</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.02205443118472792</v>
+      </c>
+      <c r="E87">
+        <v>0.1349487973842101</v>
+      </c>
+      <c r="F87">
+        <v>0.06856369541891857</v>
+      </c>
+      <c r="G87">
+        <v>-0.05339424004184198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.06090691631605726</v>
+        <v>-0.06026042367887226</v>
       </c>
       <c r="C88">
-        <v>-0.06000105976725768</v>
+        <v>0.06070609258389496</v>
       </c>
       <c r="D88">
-        <v>0.01596310474862666</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01842314818666569</v>
+      </c>
+      <c r="E88">
+        <v>-0.01423312899544724</v>
+      </c>
+      <c r="F88">
+        <v>-0.02610351941606696</v>
+      </c>
+      <c r="G88">
+        <v>0.01403453484231697</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1484861855480389</v>
+        <v>-0.1507850713289114</v>
       </c>
       <c r="C89">
-        <v>0.1944797594479623</v>
+        <v>-0.2055458235310738</v>
       </c>
       <c r="D89">
-        <v>-0.03689217525531559</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.05313213244616049</v>
+      </c>
+      <c r="E89">
+        <v>0.08290399180496812</v>
+      </c>
+      <c r="F89">
+        <v>0.09014346335168529</v>
+      </c>
+      <c r="G89">
+        <v>-0.008897208206073946</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1768176938481811</v>
+        <v>-0.1837116560657889</v>
       </c>
       <c r="C90">
-        <v>0.2295474263182364</v>
+        <v>-0.2369703828507132</v>
       </c>
       <c r="D90">
-        <v>-0.08899752768828693</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.1043174541681738</v>
+      </c>
+      <c r="E90">
+        <v>0.1237811905574726</v>
+      </c>
+      <c r="F90">
+        <v>0.1357771529851353</v>
+      </c>
+      <c r="G90">
+        <v>-0.0007916135665853802</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1271630642935774</v>
+        <v>-0.1213102661519915</v>
       </c>
       <c r="C91">
-        <v>0.02287309322769136</v>
+        <v>-0.02028673943997705</v>
       </c>
       <c r="D91">
-        <v>0.03919699164651411</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.04605001898498944</v>
+      </c>
+      <c r="E91">
+        <v>-0.1041786818604607</v>
+      </c>
+      <c r="F91">
+        <v>-0.09105070090155828</v>
+      </c>
+      <c r="G91">
+        <v>-0.002567641267249188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1714227717912402</v>
+        <v>-0.1745036483386373</v>
       </c>
       <c r="C92">
-        <v>0.265121312450809</v>
+        <v>-0.2756655494057537</v>
       </c>
       <c r="D92">
-        <v>-0.0800720685668202</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.08201308529076859</v>
+      </c>
+      <c r="E92">
+        <v>0.08159955427654943</v>
+      </c>
+      <c r="F92">
+        <v>0.1864146971378861</v>
+      </c>
+      <c r="G92">
+        <v>0.04374669573045302</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1774331403923952</v>
+        <v>-0.1851885737970067</v>
       </c>
       <c r="C93">
-        <v>0.2223450699248599</v>
+        <v>-0.227392256078464</v>
       </c>
       <c r="D93">
-        <v>-0.05032961394270493</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.05228103689980573</v>
+      </c>
+      <c r="E93">
+        <v>0.05896094926123844</v>
+      </c>
+      <c r="F93">
+        <v>0.09776627378243362</v>
+      </c>
+      <c r="G93">
+        <v>0.05995423038998039</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.119059678235411</v>
+        <v>-0.113412912096454</v>
       </c>
       <c r="C94">
-        <v>-0.03310298916961091</v>
+        <v>0.0339941102545647</v>
       </c>
       <c r="D94">
-        <v>0.0587090381440929</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.0622315820441178</v>
+      </c>
+      <c r="E94">
+        <v>-0.04428195994741179</v>
+      </c>
+      <c r="F94">
+        <v>-0.05594071225692989</v>
+      </c>
+      <c r="G94">
+        <v>0.04393849088606742</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1179618348313826</v>
+        <v>-0.1210150713441672</v>
       </c>
       <c r="C95">
-        <v>-0.1004210313649169</v>
+        <v>0.1111409947054203</v>
       </c>
       <c r="D95">
-        <v>0.01777400119180212</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.02558512602453615</v>
+      </c>
+      <c r="E95">
+        <v>-0.03461763151666407</v>
+      </c>
+      <c r="F95">
+        <v>0.07420260932059489</v>
+      </c>
+      <c r="G95">
+        <v>-0.0008485166699762454</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1121169882223156</v>
+        <v>-0.1108690987726517</v>
       </c>
       <c r="C96">
-        <v>-0.1088136125210082</v>
+        <v>0.1155265046124501</v>
       </c>
       <c r="D96">
-        <v>-0.02042123756748488</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.003360640107964958</v>
+      </c>
+      <c r="E96">
+        <v>-0.02044333451322691</v>
+      </c>
+      <c r="F96">
+        <v>-0.07904515160352739</v>
+      </c>
+      <c r="G96">
+        <v>0.09585016333786545</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1909801736842708</v>
+        <v>-0.1951285318593768</v>
       </c>
       <c r="C97">
-        <v>-0.003286927452334922</v>
+        <v>-0.002294479213114261</v>
       </c>
       <c r="D97">
-        <v>-0.09208940535018165</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.1278750993499625</v>
+      </c>
+      <c r="E97">
+        <v>-0.152818018674122</v>
+      </c>
+      <c r="F97">
+        <v>-0.327398918804676</v>
+      </c>
+      <c r="G97">
+        <v>-0.8131002748150958</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1992339005656324</v>
+        <v>-0.2042151837398835</v>
       </c>
       <c r="C98">
-        <v>-0.03182398402563164</v>
+        <v>0.0342113936566452</v>
       </c>
       <c r="D98">
-        <v>-0.1146590445909724</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1024353471173121</v>
+      </c>
+      <c r="E98">
+        <v>-0.009356181441228085</v>
+      </c>
+      <c r="F98">
+        <v>-0.107025626032418</v>
+      </c>
+      <c r="G98">
+        <v>0.02068970200103974</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05418749107932257</v>
+        <v>-0.05363080722593116</v>
       </c>
       <c r="C99">
-        <v>-0.05360239056766687</v>
+        <v>0.05447148660800385</v>
       </c>
       <c r="D99">
-        <v>0.01043171850005245</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.007345930349386433</v>
+      </c>
+      <c r="E99">
+        <v>-0.0007562024532928639</v>
+      </c>
+      <c r="F99">
+        <v>0.0331304057876887</v>
+      </c>
+      <c r="G99">
+        <v>-0.01403268202138879</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1151026011394013</v>
+        <v>-0.1076091006326878</v>
       </c>
       <c r="C100">
-        <v>-0.4008265392717829</v>
+        <v>0.3684235982412754</v>
       </c>
       <c r="D100">
-        <v>-0.551694332008169</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.6374484793499613</v>
+      </c>
+      <c r="E100">
+        <v>0.5724071624362195</v>
+      </c>
+      <c r="F100">
+        <v>-0.1052052803300659</v>
+      </c>
+      <c r="G100">
+        <v>-0.005126559560747397</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02401981479494425</v>
+        <v>-0.02670290072241936</v>
       </c>
       <c r="C101">
-        <v>-0.0478759294367235</v>
+        <v>0.04579787698444308</v>
       </c>
       <c r="D101">
-        <v>0.01696157825702278</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01681412554293385</v>
+      </c>
+      <c r="E101">
+        <v>-0.01639360011203521</v>
+      </c>
+      <c r="F101">
+        <v>0.07179422875520329</v>
+      </c>
+      <c r="G101">
+        <v>-0.002774848389401419</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3037,19 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
